--- a/backend/templates/TATemplate.xlsx
+++ b/backend/templates/TATemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\IP\IP-PhD-Management-Portal\backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\8th Sem\IP\new_project\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7395F1-9A0D-4E3E-84B4-D37BF5BBF72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46733521-A537-4687-A777-679316216F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,18 +352,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/backend/templates/TATemplate.xlsx
+++ b/backend/templates/TATemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\8th Sem\IP\new_project\backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\IP\IP-PhD-Management-Portal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46733521-A537-4687-A777-679316216F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011EC28D-58ED-4B07-B99C-7E9F5C0D7735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,8 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,31 +353,34 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showErrorMessage="1" errorTitle="Invalid Option" error="This is not a valid course code" sqref="C1" xr:uid="{C6E16A99-0907-47E3-9F7B-001DCD535A4A}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Incorrect Format: No Special Characters allowed other than &quot;/&quot;!" promptTitle="Enter Course Code/Codes" prompt="Multiple Course Codes should be &quot;/&quot; Separated Only!" sqref="C2:C1048576" xr:uid="{488634A6-914F-4802-84FE-B70E6528F22D}">
-      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(E1,ROW(INDIRECT("1:"&amp;LEN(E1))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ/"))),ISERR(FIND(" ",E1)),ISERR(FIND(",",E1)))</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry: Format" error="1. No Special Characters allowed other than &quot;/&quot;._x000a_2. No Space is allowed." promptTitle="Enter Course Code/Codes" prompt="1. Alphabet and Numbers only._x000a_2. Multiple Course Codes should be &quot;/&quot; Separated Only_x000a_3. No Space is Allowed._x000a_4. Ex: CSE101/CSE102/CSE103" sqref="C2:C1048576" xr:uid="{488634A6-914F-4802-84FE-B70E6528F22D}">
+      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(C2,ROW(INDIRECT("1:"&amp;LEN(C2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ/"))),ISERR(FIND(" ",C2)),ISERR(FIND(",",C2)))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/templates/TATemplate.xlsx
+++ b/backend/templates/TATemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\IP\IP-PhD-Management-Portal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011EC28D-58ED-4B07-B99C-7E9F5C0D7735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10B0E8B-D74A-4569-906C-69BF84B98AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,12 +64,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,7 +352,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -364,24 +363,21 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" errorTitle="Invalid Option" error="This is not a valid course code" sqref="C1" xr:uid="{C6E16A99-0907-47E3-9F7B-001DCD535A4A}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry: Format" error="1. No Special Characters allowed other than &quot;/&quot;._x000a_2. No Space is allowed." promptTitle="Enter Course Code/Codes" prompt="1. Alphabet and Numbers only._x000a_2. Multiple Course Codes should be &quot;/&quot; Separated Only_x000a_3. No Space is Allowed._x000a_4. Ex: CSE101/CSE102/CSE103" sqref="C2:C1048576" xr:uid="{488634A6-914F-4802-84FE-B70E6528F22D}">
-      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(C2,ROW(INDIRECT("1:"&amp;LEN(C2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ/"))),ISERR(FIND(" ",C2)),ISERR(FIND(",",C2)))</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
